--- a/public/docs/Members Template.xlsx
+++ b/public/docs/Members Template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28619"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2163CB5-2024-4DE7-9EE6-9AF0E15F1CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7710763-035A-4591-A1F1-E550E0C84F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>MEMBERS</t>
   </si>
@@ -57,10 +57,19 @@
     <t>Role</t>
   </si>
   <si>
+    <t>Voice</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
     <t>Phone</t>
+  </si>
+  <si>
+    <t>Dietary</t>
+  </si>
+  <si>
+    <t>Allergy Note</t>
   </si>
   <si>
     <t>Notes</t>
@@ -70,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +103,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -112,21 +129,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,142 +479,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="12" width="14.85546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36">
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:13" ht="36">
+      <c r="C1"/>
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
     </row>
-    <row r="2" spans="1:10" ht="18.75">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" ht="18.75">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="3"/>
+    <row r="3" spans="1:13">
+      <c r="I3" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Gender value can only be male or female" promptTitle="Gender" prompt="Male or female" sqref="B3:B1048576" xr:uid="{DB253724-1F14-4B16-B88A-DD47AC99F0AF}">
+  <dataValidations count="12">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Gender value can only be male or female" promptTitle="Gender" prompt="Male or female" sqref="B3:B1048576" xr:uid="{DB253724-1F14-4B16-B88A-DD47AC99F0AF}">
       <formula1>"Male, Female"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Age group can only be one of these ones_x000a_0-5, 6-10, 11-20, 21-30, 31-40, 41-50, 51-60, 60+" promptTitle="Age Range" prompt="0-5, 6-10, 11-20, 21-30, 31-40, 41-50, 51-60, 60+" sqref="C3:C1048576" xr:uid="{F5B68889-F93C-48EC-A2B4-BCB7F7E6914C}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Age group can only be one of these ones_x000a_0-5, 6-10, 11-20, 21-30, 31-40, 41-50, 51-60, 60+" promptTitle="Age Range" prompt="0-5, 6-10, 11-20, 21-30, 31-40, 41-50, 51-60, 60+" sqref="C3:C1048576" xr:uid="{F5B68889-F93C-48EC-A2B4-BCB7F7E6914C}">
       <formula1>"0-5, 6-10, 11-20, 21-30, 31-40, 41-50, 51-60, 60+"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Marital status can only be one of these: Single, Married" promptTitle="Marital Status" prompt="Single or Married" sqref="D3:D1048576" xr:uid="{E230C817-1F51-40B6-9623-C03BB0987973}">
-      <formula1>"Single, Married"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Employement status can only be one of these: Employed, Unemployed" promptTitle="Employment status" prompt="Employed or Unemployed" sqref="E3:E1048576" xr:uid="{E5D99253-6E0B-4B9D-9F72-2546FD0CB531}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Marital status can only be one of these: Single, Married,  Separated, Widow" promptTitle="Marital Status" prompt="Single or Married or Separated or Widow" sqref="D3:D1048576" xr:uid="{E230C817-1F51-40B6-9623-C03BB0987973}">
+      <formula1>"Single, Married,  Separated, Widow"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Employement status can only be one of these: Employed, Unemployed" promptTitle="Employment status" prompt="Employed or Unemployed" sqref="E3:E1048576" xr:uid="{E5D99253-6E0B-4B9D-9F72-2546FD0CB531}">
       <formula1>"Employed, Unemployed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Member status can only be one of these: Active, Non-active, Moved away" promptTitle="Status" prompt="Active or Non-active or Moved away" sqref="F3:F1048576" xr:uid="{43ABCF89-B041-4B12-8C96-BE5F8427F971}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Member status can only be one of these: Active, Non-active, Moved away" promptTitle="Status" prompt="Active or Non-active or Moved away" sqref="F3:F1048576" xr:uid="{43ABCF89-B041-4B12-8C96-BE5F8427F971}">
       <formula1>"Active, Non-active, Moved away"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Member role can only be some of these: Member, Departmental Leader, Elder, Pastor" promptTitle="Role" prompt="Member or Departmental Leader or Elder or Pastor" sqref="G3:G1048576" xr:uid="{707EF527-8F20-4FB2-AFFE-184B7676FE3A}">
-      <formula1>"Member, Departmental Leader, Elder, Pastor"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Member role can only be some of these: Member, Non-member, Choir Official, NAGACU Official, NAGSDA, Departmental Leader, Elder, Pastor" promptTitle="Role" prompt="Member, Non-member, Choir Official or NAGACU Official or NAGSDA or Departmental Leader or Elder or Pastor" sqref="G3:G1048576" xr:uid="{707EF527-8F20-4FB2-AFFE-184B7676FE3A}">
+      <formula1>"Member, Non-member, Choir Official, NAGACU Official, NAGSDA, Departmental Leader, Elder, Pastor"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Enter a valid name. Name must be at least 6 characters" promptTitle="Name" prompt="Must be at least 6 characters" sqref="A3:A1048576" xr:uid="{CFCA2F22-9F48-4C5D-AFCC-353EA6E10BC2}">
+      <formula1>6</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Must be at least 6 characters" promptTitle="Enter Email" prompt="must be at least 6 characters" sqref="I3:I1048576" xr:uid="{BD68158E-90EA-4AF7-ABCA-5737F87C9CC0}">
+      <formula1>6</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Must be at least 8 characters" promptTitle="Enter Phone" prompt="must be at least 8 characters" sqref="J3:J1048576" xr:uid="{6481FCD7-8A83-422D-9F67-A0F023D2E7E3}">
+      <formula1>8</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Member voice can only be some of these: Soprano, Alto, Tenor, Bass, NA" promptTitle="Voice" prompt="Soprano or Alto or Tenor or Bass or NA" sqref="H3:H1048576" xr:uid="{AF4D9AF1-3503-486A-98A4-87AE2BBE4B2C}">
+      <formula1>"Soprano, Alto, Tenor, Bass, NA"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Dietary preference can only be one of these: Vegetarian, Non-vegetarian" promptTitle="Select Dietary preference" prompt="Vegetarian or Non-vegetarian" sqref="K3:K1048576" xr:uid="{25DEF1E9-D85C-4710-8034-6D56351541E8}">
+      <formula1>"Vegetarian, Non-vegetarian"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Allergy note must be at least 10 characters" promptTitle="Enter note" prompt="At least 10 characters" sqref="L3:L1048576" xr:uid="{E92AFE4C-115B-4766-B440-6CF9CBB24F0B}">
+      <formula1>10</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/docs/Members Template.xlsx
+++ b/public/docs/Members Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28619"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7710763-035A-4591-A1F1-E550E0C84F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77C2D549-EF68-436C-9EFA-6AC6282A7D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>MEMBERS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Full Name</t>
   </si>
@@ -79,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,24 +86,8 @@
     </font>
     <font>
       <b/>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,24 +110,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,121 +454,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="12" width="14.85546875" style="4" customWidth="1"/>
+    <col min="10" max="12" width="14.85546875" style="3" customWidth="1"/>
     <col min="13" max="13" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36">
-      <c r="C1"/>
-      <c r="D1" s="5" t="s">
+    <row r="1" spans="1:13" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.75">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="I3" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:F1"/>
-  </mergeCells>
   <dataValidations count="12">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Gender value can only be male or female" promptTitle="Gender" prompt="Male or female" sqref="B3:B1048576" xr:uid="{DB253724-1F14-4B16-B88A-DD47AC99F0AF}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Gender value can only be male or female" promptTitle="Gender" prompt="Male or female" sqref="B2:B1048576" xr:uid="{DB253724-1F14-4B16-B88A-DD47AC99F0AF}">
       <formula1>"Male, Female"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Age group can only be one of these ones_x000a_0-5, 6-10, 11-20, 21-30, 31-40, 41-50, 51-60, 60+" promptTitle="Age Range" prompt="0-5, 6-10, 11-20, 21-30, 31-40, 41-50, 51-60, 60+" sqref="C3:C1048576" xr:uid="{F5B68889-F93C-48EC-A2B4-BCB7F7E6914C}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Age group can only be one of these ones_x000a_0-5, 6-10, 11-20, 21-30, 31-40, 41-50, 51-60, 60+" promptTitle="Age Range" prompt="0-5, 6-10, 11-20, 21-30, 31-40, 41-50, 51-60, 60+" sqref="C2:C1048576" xr:uid="{F5B68889-F93C-48EC-A2B4-BCB7F7E6914C}">
       <formula1>"0-5, 6-10, 11-20, 21-30, 31-40, 41-50, 51-60, 60+"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Marital status can only be one of these: Single, Married,  Separated, Widow" promptTitle="Marital Status" prompt="Single or Married or Separated or Widow" sqref="D3:D1048576" xr:uid="{E230C817-1F51-40B6-9623-C03BB0987973}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Marital status can only be one of these: Single, Married,  Separated, Widow" promptTitle="Marital Status" prompt="Single or Married or Separated or Widow" sqref="D2:D1048576" xr:uid="{E230C817-1F51-40B6-9623-C03BB0987973}">
       <formula1>"Single, Married,  Separated, Widow"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Employement status can only be one of these: Employed, Unemployed" promptTitle="Employment status" prompt="Employed or Unemployed" sqref="E3:E1048576" xr:uid="{E5D99253-6E0B-4B9D-9F72-2546FD0CB531}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Employement status can only be one of these: Employed, Unemployed" promptTitle="Employment status" prompt="Employed or Unemployed" sqref="E2:E1048576" xr:uid="{E5D99253-6E0B-4B9D-9F72-2546FD0CB531}">
       <formula1>"Employed, Unemployed"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Member status can only be one of these: Active, Non-active, Moved away" promptTitle="Status" prompt="Active or Non-active or Moved away" sqref="F3:F1048576" xr:uid="{43ABCF89-B041-4B12-8C96-BE5F8427F971}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Member status can only be one of these: Active, Non-active, Moved away" promptTitle="Status" prompt="Active or Non-active or Moved away" sqref="F2:F1048576" xr:uid="{43ABCF89-B041-4B12-8C96-BE5F8427F971}">
       <formula1>"Active, Non-active, Moved away"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Member role can only be some of these: Member, Non-member, Choir Official, NAGACU Official, NAGSDA, Departmental Leader, Elder, Pastor" promptTitle="Role" prompt="Member, Non-member, Choir Official or NAGACU Official or NAGSDA or Departmental Leader or Elder or Pastor" sqref="G3:G1048576" xr:uid="{707EF527-8F20-4FB2-AFFE-184B7676FE3A}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Member role can only be some of these: Member, Non-member, Choir Official, NAGACU Official, NAGSDA, Departmental Leader, Elder, Pastor" promptTitle="Role" prompt="Member, Non-member, Choir Official or NAGACU Official or NAGSDA or Departmental Leader or Elder or Pastor" sqref="G2:G1048576" xr:uid="{707EF527-8F20-4FB2-AFFE-184B7676FE3A}">
       <formula1>"Member, Non-member, Choir Official, NAGACU Official, NAGSDA, Departmental Leader, Elder, Pastor"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Enter a valid name. Name must be at least 6 characters" promptTitle="Name" prompt="Must be at least 6 characters" sqref="A3:A1048576" xr:uid="{CFCA2F22-9F48-4C5D-AFCC-353EA6E10BC2}">
+    <dataValidation type="textLength" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Enter a valid name. Name must be at least 6 characters" promptTitle="Name" prompt="Must be at least 6 characters" sqref="A2:A1048576" xr:uid="{CFCA2F22-9F48-4C5D-AFCC-353EA6E10BC2}">
       <formula1>6</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Must be at least 6 characters" promptTitle="Enter Email" prompt="must be at least 6 characters" sqref="I3:I1048576" xr:uid="{BD68158E-90EA-4AF7-ABCA-5737F87C9CC0}">
+    <dataValidation type="textLength" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Must be at least 6 characters" promptTitle="Enter Email" prompt="must be at least 6 characters" sqref="I2:I1048576" xr:uid="{BD68158E-90EA-4AF7-ABCA-5737F87C9CC0}">
       <formula1>6</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Must be at least 8 characters" promptTitle="Enter Phone" prompt="must be at least 8 characters" sqref="J3:J1048576" xr:uid="{6481FCD7-8A83-422D-9F67-A0F023D2E7E3}">
+    <dataValidation type="textLength" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Must be at least 8 characters" promptTitle="Enter Phone" prompt="must be at least 8 characters" sqref="J2:J1048576" xr:uid="{6481FCD7-8A83-422D-9F67-A0F023D2E7E3}">
       <formula1>8</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Member voice can only be some of these: Soprano, Alto, Tenor, Bass, NA" promptTitle="Voice" prompt="Soprano or Alto or Tenor or Bass or NA" sqref="H3:H1048576" xr:uid="{AF4D9AF1-3503-486A-98A4-87AE2BBE4B2C}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Member voice can only be some of these: Soprano, Alto, Tenor, Bass, NA" promptTitle="Voice" prompt="Soprano or Alto or Tenor or Bass or NA" sqref="H2:H1048576" xr:uid="{AF4D9AF1-3503-486A-98A4-87AE2BBE4B2C}">
       <formula1>"Soprano, Alto, Tenor, Bass, NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Dietary preference can only be one of these: Vegetarian, Non-vegetarian" promptTitle="Select Dietary preference" prompt="Vegetarian or Non-vegetarian" sqref="K3:K1048576" xr:uid="{25DEF1E9-D85C-4710-8034-6D56351541E8}">
+    <dataValidation type="list" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Dietary preference can only be one of these: Vegetarian, Non-vegetarian" promptTitle="Select Dietary preference" prompt="Vegetarian or Non-vegetarian" sqref="K2:K1048576" xr:uid="{25DEF1E9-D85C-4710-8034-6D56351541E8}">
       <formula1>"Vegetarian, Non-vegetarian"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Allergy note must be at least 10 characters" promptTitle="Enter note" prompt="At least 10 characters" sqref="L3:L1048576" xr:uid="{E92AFE4C-115B-4766-B440-6CF9CBB24F0B}">
+    <dataValidation type="textLength" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Allergy note must be at least 10 characters" promptTitle="Enter note" prompt="At least 10 characters" sqref="L2:L1048576" xr:uid="{E92AFE4C-115B-4766-B440-6CF9CBB24F0B}">
       <formula1>10</formula1>
     </dataValidation>
   </dataValidations>

--- a/public/docs/Members Template.xlsx
+++ b/public/docs/Members Template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77C2D549-EF68-436C-9EFA-6AC6282A7D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF1E8B25-F9EA-4B70-8A0E-B0AA4CF22592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G2" sqref="G2:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -533,8 +533,8 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Member status can only be one of these: Active, Non-active, Moved away" promptTitle="Status" prompt="Active or Non-active or Moved away" sqref="F2:F1048576" xr:uid="{43ABCF89-B041-4B12-8C96-BE5F8427F971}">
       <formula1>"Active, Non-active, Moved away"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Member role can only be some of these: Member, Non-member, Choir Official, NAGACU Official, NAGSDA, Departmental Leader, Elder, Pastor" promptTitle="Role" prompt="Member, Non-member, Choir Official or NAGACU Official or NAGSDA or Departmental Leader or Elder or Pastor" sqref="G2:G1048576" xr:uid="{707EF527-8F20-4FB2-AFFE-184B7676FE3A}">
-      <formula1>"Member, Non-member, Choir Official, NAGACU Official, NAGSDA, Departmental Leader, Elder, Pastor"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Member role can only be some of these: Member, Local Church Ministry Leader, NAGSDA Official, Departmental Leader, Local Church Elder, Pastor, Non-member, Non-Member (Guest), Non-Adventist (Guest)" promptTitle="Role" prompt="Member or Local Church Ministry Leader or NAGSDA Official or Departmental Leader or Local Church Elder or Pastor or Non-member or Non-Member (Guest) or Non-Adventist (Guest)" sqref="G2:G1048576" xr:uid="{707EF527-8F20-4FB2-AFFE-184B7676FE3A}">
+      <formula1>"Member, Local Church Ministry Leader, NAGSDA Official, Departmental Leader, Local Church Elder, Pastor, Non-member, Non-Member (Guest), Non-Adventist (Guest)"</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Enter a valid name. Name must be at least 6 characters" promptTitle="Name" prompt="Must be at least 6 characters" sqref="A2:A1048576" xr:uid="{CFCA2F22-9F48-4C5D-AFCC-353EA6E10BC2}">
       <formula1>6</formula1>
